--- a/example/formulation_1/input/Parameters_for_MC_Stochastic.xlsx
+++ b/example/formulation_1/input/Parameters_for_MC_Stochastic.xlsx
@@ -38,7 +38,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Stung_Treng_Stochastic_500.csv</t>
+    <t>Stung_Treng_Stochastic_100.csv</t>
   </si>
 </sst>
 </file>
